--- a/PLANNING.xlsx
+++ b/PLANNING.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Action Soccer Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11390481-E4AF-45D1-8E8E-D17872B52AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE98DF-A7EF-4425-84D3-FDB44E739271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5161" yWindow="2638" windowWidth="7500" windowHeight="6002" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5503" yWindow="2980" windowWidth="7500" windowHeight="6002" xr2:uid="{2454251A-189E-4262-B492-6B603A5D7778}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>ENTITY</t>
   </si>
@@ -45,48 +46,15 @@
     <t>GAME</t>
   </si>
   <si>
-    <t>plays in</t>
-  </si>
-  <si>
-    <t>plays for</t>
-  </si>
-  <si>
     <t>1:(0..M)</t>
   </si>
   <si>
-    <t>1:(0..N)</t>
-  </si>
-  <si>
-    <t>plays</t>
-  </si>
-  <si>
-    <t>MATCH</t>
-  </si>
-  <si>
-    <t>consists of</t>
-  </si>
-  <si>
     <t>ATTRIBUTES</t>
   </si>
   <si>
-    <t>P_FNAME</t>
-  </si>
-  <si>
-    <t>P_LNAME</t>
-  </si>
-  <si>
-    <t>P_AGE</t>
-  </si>
-  <si>
-    <t>P_DOB</t>
-  </si>
-  <si>
     <t>calculated from P_DOB</t>
   </si>
   <si>
-    <t>TEAM_PARTICIPANT</t>
-  </si>
-  <si>
     <t>is a</t>
   </si>
   <si>
@@ -108,13 +76,7 @@
     <t>T_GOALS_FOR</t>
   </si>
   <si>
-    <t>T_GOALS_AGAINS</t>
-  </si>
-  <si>
     <t>T_PLAYED</t>
-  </si>
-  <si>
-    <t>1:5</t>
   </si>
   <si>
     <t>calculated</t>
@@ -141,18 +103,6 @@
     <t>U_ID</t>
   </si>
   <si>
-    <t>U_PASSWORD</t>
-  </si>
-  <si>
-    <t>M_HOME</t>
-  </si>
-  <si>
-    <t>M_AWAY</t>
-  </si>
-  <si>
-    <t>M_ID</t>
-  </si>
-  <si>
     <t>T_WIN_PERCENTAGE</t>
   </si>
   <si>
@@ -168,17 +118,120 @@
     <t>G_AWAY_SCORE</t>
   </si>
   <si>
-    <t>5:(0..M)</t>
-  </si>
-  <si>
-    <t>2:(0..M)</t>
+    <t>SPECTATOR</t>
+  </si>
+  <si>
+    <t>U_TYPE</t>
+  </si>
+  <si>
+    <t>U_PASS</t>
+  </si>
+  <si>
+    <t>U_FNAME</t>
+  </si>
+  <si>
+    <t>U_LNAME</t>
+  </si>
+  <si>
+    <t>U_DOB</t>
+  </si>
+  <si>
+    <t>U_AGE</t>
+  </si>
+  <si>
+    <t>P_GAMES_PLAYED</t>
+  </si>
+  <si>
+    <t>P_FOOT</t>
+  </si>
+  <si>
+    <t>PLAYER_ARCHIVES</t>
+  </si>
+  <si>
+    <t>PA_GOALS_SCORED</t>
+  </si>
+  <si>
+    <t>PA_RATING</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>MATCH_OFFICIAL</t>
+  </si>
+  <si>
+    <t>type is either 
+Referee, organizer</t>
+  </si>
+  <si>
+    <t>has a</t>
+  </si>
+  <si>
+    <t>PA_POSITION</t>
+  </si>
+  <si>
+    <t>P_GAMES_WON</t>
+  </si>
+  <si>
+    <t>P_GAMES_LOST</t>
+  </si>
+  <si>
+    <t>P_AVG_RATING</t>
+  </si>
+  <si>
+    <t>PLAYER_ARCHIVE</t>
+  </si>
+  <si>
+    <t>CAPTAIN_ARCHIVE</t>
+  </si>
+  <si>
+    <t>1:(0..P)</t>
+  </si>
+  <si>
+    <t>can be found in</t>
+  </si>
+  <si>
+    <t>T_GOALS_AGAINST</t>
+  </si>
+  <si>
+    <t>1:(1..Q)</t>
+  </si>
+  <si>
+    <t>fk of T_ID</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>which team</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>played by</t>
+  </si>
+  <si>
+    <t>G_ID</t>
+  </si>
+  <si>
+    <t>G_HOME</t>
+  </si>
+  <si>
+    <t>G_AWAY</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +239,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,10 +409,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -344,13 +422,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,409 +726,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E48"/>
+  <dimension ref="B1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="1">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" ht="71.3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" ht="71.3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+      <c r="C52" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="9"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PLANNING.xlsx
+++ b/PLANNING.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Action Soccer Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE98DF-A7EF-4425-84D3-FDB44E739271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3E1EC-4727-4A09-8B2F-65B5CC9356AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5161" yWindow="2638" windowWidth="7500" windowHeight="6002" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="5503" yWindow="2980" windowWidth="7500" windowHeight="6002" xr2:uid="{2454251A-189E-4262-B492-6B603A5D7778}"/>
+    <workbookView xWindow="-3735" yWindow="5418" windowWidth="7499" windowHeight="6002" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>ENTITY</t>
   </si>
@@ -58,31 +57,7 @@
     <t>is a</t>
   </si>
   <si>
-    <t>T_NAME</t>
-  </si>
-  <si>
-    <t>T_FOUNDED</t>
-  </si>
-  <si>
-    <t>T_WINS</t>
-  </si>
-  <si>
-    <t>T_LOSSES</t>
-  </si>
-  <si>
-    <t>T_DRAWS</t>
-  </si>
-  <si>
-    <t>T_GOALS_FOR</t>
-  </si>
-  <si>
-    <t>T_PLAYED</t>
-  </si>
-  <si>
     <t>calculated</t>
-  </si>
-  <si>
-    <t>T_GOAL_DIFF</t>
   </si>
   <si>
     <t>CHECK REQUIREMENTS
@@ -91,67 +66,16 @@
 PLAYER INFO</t>
   </si>
   <si>
-    <t>T_ID</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>U_ID</t>
-  </si>
-  <si>
-    <t>T_WIN_PERCENTAGE</t>
-  </si>
-  <si>
-    <t>G_DATE</t>
-  </si>
-  <si>
-    <t>G_TIME</t>
-  </si>
-  <si>
-    <t>G_HOME_SCORE</t>
-  </si>
-  <si>
-    <t>G_AWAY_SCORE</t>
-  </si>
-  <si>
     <t>SPECTATOR</t>
   </si>
   <si>
-    <t>U_TYPE</t>
-  </si>
-  <si>
-    <t>U_PASS</t>
-  </si>
-  <si>
-    <t>U_FNAME</t>
-  </si>
-  <si>
-    <t>U_LNAME</t>
-  </si>
-  <si>
-    <t>U_DOB</t>
-  </si>
-  <si>
-    <t>U_AGE</t>
-  </si>
-  <si>
-    <t>P_GAMES_PLAYED</t>
-  </si>
-  <si>
-    <t>P_FOOT</t>
-  </si>
-  <si>
     <t>PLAYER_ARCHIVES</t>
-  </si>
-  <si>
-    <t>PA_GOALS_SCORED</t>
-  </si>
-  <si>
-    <t>PA_RATING</t>
   </si>
   <si>
     <t>has</t>
@@ -170,18 +94,6 @@
     <t>has a</t>
   </si>
   <si>
-    <t>PA_POSITION</t>
-  </si>
-  <si>
-    <t>P_GAMES_WON</t>
-  </si>
-  <si>
-    <t>P_GAMES_LOST</t>
-  </si>
-  <si>
-    <t>P_AVG_RATING</t>
-  </si>
-  <si>
     <t>PLAYER_ARCHIVE</t>
   </si>
   <si>
@@ -194,15 +106,9 @@
     <t>can be found in</t>
   </si>
   <si>
-    <t>T_GOALS_AGAINST</t>
-  </si>
-  <si>
     <t>1:(1..Q)</t>
   </si>
   <si>
-    <t>fk of T_ID</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -215,16 +121,118 @@
     <t>played by</t>
   </si>
   <si>
-    <t>G_ID</t>
-  </si>
-  <si>
-    <t>G_HOME</t>
-  </si>
-  <si>
-    <t>G_AWAY</t>
-  </si>
-  <si>
     <t>LOGIN</t>
+  </si>
+  <si>
+    <t>fk of U_ID</t>
+  </si>
+  <si>
+    <t>MOF_REFEREE</t>
+  </si>
+  <si>
+    <t>MOF_ORGANIZER</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_FNAME</t>
+  </si>
+  <si>
+    <t>USER_LNAME</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>USER_DOB</t>
+  </si>
+  <si>
+    <t>USER_AGE</t>
+  </si>
+  <si>
+    <t>TEAM_ID</t>
+  </si>
+  <si>
+    <t>TEAM_NAME</t>
+  </si>
+  <si>
+    <t>TEAM_FOUNDED</t>
+  </si>
+  <si>
+    <t>TEAM_PLAYED</t>
+  </si>
+  <si>
+    <t>TEAM_WINS</t>
+  </si>
+  <si>
+    <t>TEAM_LOSSES</t>
+  </si>
+  <si>
+    <t>TEAM_DRAWS</t>
+  </si>
+  <si>
+    <t>PARC_POSITION</t>
+  </si>
+  <si>
+    <t>PARC_GOALS_SCORED</t>
+  </si>
+  <si>
+    <t>PARC_RATING</t>
+  </si>
+  <si>
+    <t>PLAYER_FOOT</t>
+  </si>
+  <si>
+    <t>PLAYER_PLAYED</t>
+  </si>
+  <si>
+    <t>PLAYER_WON</t>
+  </si>
+  <si>
+    <t>PLAYER_LOST</t>
+  </si>
+  <si>
+    <t>GAME_ID</t>
+  </si>
+  <si>
+    <t>PLAYER_AVGAME_RATING</t>
+  </si>
+  <si>
+    <t>GAME_REFEREE</t>
+  </si>
+  <si>
+    <t>GAME_DATE</t>
+  </si>
+  <si>
+    <t>GAME_TIME</t>
+  </si>
+  <si>
+    <t>TEAM_G_FOR</t>
+  </si>
+  <si>
+    <t>TEAM_G_AGAINST</t>
+  </si>
+  <si>
+    <t>TEAM_G_DIFF</t>
+  </si>
+  <si>
+    <t>TEAM_WIN_RATE</t>
+  </si>
+  <si>
+    <t>M:N</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>LOGIN_UNAME</t>
+  </si>
+  <si>
+    <t>LOGIN_PASS</t>
+  </si>
+  <si>
+    <t>MATCH_SCORE</t>
   </si>
 </sst>
 </file>
@@ -253,11 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -409,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -443,9 +449,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,13 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H84"/>
+  <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="1">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -742,7 +749,8 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="11" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -768,16 +776,16 @@
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -788,7 +796,7 @@
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>9</v>
@@ -797,38 +805,38 @@
         <v>3</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -842,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>6</v>
@@ -862,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -876,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -898,33 +906,49 @@
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>0</v>
       </c>
@@ -933,212 +957,227 @@
       </c>
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="15" t="s">
-        <v>34</v>
+      <c r="C31" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:8" ht="71.3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="C38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="F38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="F39" s="3"/>
       <c r="G39" s="25" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="27" t="s">
-        <v>46</v>
+      <c r="G40" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="15"/>
       <c r="D45" s="4"/>
@@ -1146,27 +1185,23 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>58</v>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -1175,201 +1210,184 @@
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="26" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
       <c r="F50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="5"/>
+      <c r="C53" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="19"/>
+      <c r="F53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D54" s="5"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D59" s="5"/>
+      <c r="F59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
-      <c r="C62" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="C62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="31" t="s">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
@@ -1393,12 +1411,12 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
-      <c r="C80" s="25"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -1415,6 +1433,11 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
